--- a/data/code_mappings.xlsx
+++ b/data/code_mappings.xlsx
@@ -1,39 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manav Sonawane\Desktop\StockTrack\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD9782-B644-4DDA-95F5-F3B6D1F0E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15930" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Brand" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Color" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BrandCodes" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelCodes" sheetId="2" r:id="rId2"/>
+    <sheet name="ColorCodes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>Reebok</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>AirMax</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>Ultraboost</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>Suede</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>UltraBoost</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>RS-X</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,93 +149,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,77 +473,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Brand</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Adidas</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B02</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Puma</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B03</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Reebok</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B04</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -501,101 +526,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AirMax</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>M01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ultraboost</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M02</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Suede</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M03</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UltraBoost</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RS-X</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M05</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M06</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -604,65 +595,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>C01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>C02</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C03</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/code_mappings.xlsx
+++ b/data/code_mappings.xlsx
@@ -1,140 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manav Sonawane\Desktop\StockTrack\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD9782-B644-4DDA-95F5-F3B6D1F0E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15930" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BrandCodes" sheetId="1" r:id="rId1"/>
-    <sheet name="ModelCodes" sheetId="2" r:id="rId2"/>
-    <sheet name="ColorCodes" sheetId="3" r:id="rId3"/>
+    <sheet name="Brand" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Color" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>Adidas</t>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>B03</t>
-  </si>
-  <si>
-    <t>Reebok</t>
-  </si>
-  <si>
-    <t>B04</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>AirMax</t>
-  </si>
-  <si>
-    <t>M01</t>
-  </si>
-  <si>
-    <t>Ultraboost</t>
-  </si>
-  <si>
-    <t>M02</t>
-  </si>
-  <si>
-    <t>Suede</t>
-  </si>
-  <si>
-    <t>M03</t>
-  </si>
-  <si>
-    <t>UltraBoost</t>
-  </si>
-  <si>
-    <t>M04</t>
-  </si>
-  <si>
-    <t>RS-X</t>
-  </si>
-  <si>
-    <t>M05</t>
-  </si>
-  <si>
-    <t>Classic</t>
-  </si>
-  <si>
-    <t>M06</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,43 +48,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -473,51 +422,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Adidas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B04</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -526,67 +501,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AirMax</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>M01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ultraboost</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Suede</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UltraBoost</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RS-X</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Classic</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M06</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -595,43 +604,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C03</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/code_mappings.xlsx
+++ b/data/code_mappings.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -474,7 +474,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>Bata</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -486,12 +486,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Reebok</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B04</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B05</t>
         </is>
       </c>
     </row>
@@ -506,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +541,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AirMax</t>
+          <t>Ultraboost</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,7 +553,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ultraboost</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -553,7 +565,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Suede</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,7 +577,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UltraBoost</t>
+          <t>Pegasus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -577,24 +589,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RS-X</t>
+          <t>Runner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>M05</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M06</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +632,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -656,12 +656,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>C03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C05</t>
         </is>
       </c>
     </row>
